--- a/data/Restaurant_Sides.xlsx
+++ b/data/Restaurant_Sides.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zackdawood/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zackdawood/Documents/GitHub/royalefusionflare/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9E28AD-1130-3448-9D4E-894CAF6C2D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1B8AD4-12C9-4741-B7DF-0E02D1880A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="500" windowWidth="37360" windowHeight="21100" xr2:uid="{C3A750CB-E2B2-FF47-BBA9-1456A2D4897E}"/>
+    <workbookView xWindow="41060" yWindow="260" windowWidth="37360" windowHeight="21100" xr2:uid="{C3A750CB-E2B2-FF47-BBA9-1456A2D4897E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$162</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="356">
   <si>
     <t>Category</t>
   </si>
@@ -627,52 +624,499 @@
   </si>
   <si>
     <t>./images/menuimg/001_ChickenRoll.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/002_EggRoll.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/003_VegRoll.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/004_LambSoup.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/005_ChickenSoup.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/006_Papadum.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/007_MedhuVadai.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/008_MasalVadai.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/009_ThairVadai.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/010_Panner65.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/011_Mushroom65.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/012_Gobi65.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/013_Gobi Manjurian.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/014_Paneer Butter Masala.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/015_Gobi Masala.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/016_Mushroom Masala.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/017_Fries.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/018_Onion Bhaji.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/019_Potato Bhajji.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/020_Grill Chicken Half.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/021_BBQ Half.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/022_Tandoori Half.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/023_Chicken 65 Boneless.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/024_Chicken Lollypop.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/025_Dragon Chicken.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/026_Korean Fried Chicken.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/027_Fish Finger.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/028_Prawn 65.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/029_Mutton Chukka.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/030_Chicken Nuggets.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/031_Sweet Chilli Chicken.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/032_Netholi Meen.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/033_King Fish Fry.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/034_Chicken Biriyani.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/035_Lamb Biriyani.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/036_Veg Biriyani.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/037_Chicken 65 Biriyani.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/038_Prawn Biryani.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/039_Egg Biriyani.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/040_Panner Butter Masala.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/041_Paneer manchurian.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/042_Chilli Panner.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/043_Mushroom Masala.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/044_Chilli Mushroom.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/045_Gobi Masala.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/046_Chilli Gobi.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/047_Dahl Curry.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/048_Chettinad Chicken Gravy.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/049_Chettinadu Lamb Gravy.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/050_Chicken manchurian gravy.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/051_Chilli Chicken.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/052_Ginger Chicken.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/053_Garlic Chicken.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/054_Pepper Chicken.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/055_Kadai Chicken.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/056_Butter Chicken.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/057_Mutton Masala.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/058_Prawn Masala.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/059_Prawn Thokku.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/060_Hyderabad Chicken.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/061_Punjabi Chicken.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/062_Fish Gravy.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/063_Dalcha.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/064_Lamb Gravy.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/065_Chicken Gravy.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/066_Malaysian Chicken Fried Rice.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/067_Chicken Fried Rice.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/068_Chicken Fried Rice Schezwan.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/069_Prawn Fried Rice.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/070_Prawn Fried Rice Schezwan.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/071_Mixed Fried Rice.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/072_Mixed Fried Rice Schezwan.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/073_Egg Fried Rice.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/074_Malaysian Chicken Noodles.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/075_Chicken Noodles.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/076_Chicken Noodles Schezwan.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/077_Prawn Noodles.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/078_Prawn Noodles Schezwan.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/079_Mixed Noodles.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/080_Mixed Noodles Schezwan.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/081_Egg Noodles.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/082_Egg Noodles Schezwan.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/083_Veg Fried Rice.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/084_Veg Fried Rice Schezwan.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/085_Panner Fried Rice.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/086_Panner Fried Rice Schezwan.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/087_Mushroom Fried Rice.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/088_Mushroom Fried Rice Schezwan.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/089_Gobi Fried Rice.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/090_ Gobi Fried Rice Schezwan.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/091_Veg Mix Fried Rice.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/092_Veg Mix Fried Rice Schezwan.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/093_Veg Fried Noodles.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/094_ Veg Fried Noodles Schezwan.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/095_Paneer Noodles.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/096_Paneer Noodles Schezwan.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/097_Mushroom Noodles.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/098_Mushroom Noodles Schezwan.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/099_Gobi Noodles.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/100_Gobi Noodles Schezwan.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/101_Veg Mix Noodles.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/102_Veg Mix Noodles Schezwan.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/103_Ghee Roast.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/104_Paper Roast.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/105_Egg Dosai.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/106_Kal Dosai.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/107_Masala Dosai.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/108_Chicken Kari Dosai.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/109_Mutton Kari Dosai.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/110_Plain Dosa.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/111_Idly.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/112_Poori with Masala.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/113_Prawn Parotta.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/114_Ceylon Parotta.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/115_Chicken Parotta.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/116_Mutton Parotta.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/117_ Murtaba Parotta.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/119_Chicken Kothu Parotta.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/120_Egg Kothu Parotta.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/121_Mutton Kothu Parotta.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/122_Egg Onion Chilli Parotta.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/123_Plain Veechu Parotta.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/124_Egg Veechu Parotta.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/125_Plain Parotta.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/126_Seafood Kothu Parotta.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/127_Veg Mixed Parotta.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/128_Panner Parotta.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/129_Mushroom Parotta.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/130_Chilly Parotta.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/131_Cheese Parotta.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/132_Wheat Parotta.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/133_Chappathi.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/134_Banana Parotta.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/135_ Chocolate Parotta.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/136_ Bun Parotta.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/137_Crispy Parotta.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/138_Aloo Parotta.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/139_Plain Rice.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/140_Ghee Rice.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/141_Coconut Milk Rice.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/142_Omlet.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/143_Kalaki.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/144_Egg_Podi_Mass.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/145_Masala Omlet.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/146_Egg Masala.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/147_Raita.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/148_Kathirikai Katta.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/149_Plain Naan.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/150_Garlic Naan.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/151_Plain Tea.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/152_Tea with Milk.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/153_Masala Tea.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/154_Coffee.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/155_Coke.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/156_Pepsi.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/157_Fanta.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/158_7up.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/159_Diet Coke.png</t>
+  </si>
+  <si>
+    <t>./images/menuimg/160_Diet Pepsi.png</t>
+  </si>
+  <si>
+    <t>SPICELEVEL</t>
+  </si>
+  <si>
+    <t>ISVEG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -682,42 +1126,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -732,26 +1146,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -762,6 +1182,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EF3D6AB6-F396-5B4B-A1A4-EBF6273B1322}" name="Table1" displayName="Table1" ref="A1:H163" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:H163" xr:uid="{EF3D6AB6-F396-5B4B-A1A4-EBF6273B1322}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{6E2BB50C-8160-DC4F-B73D-4D3AEBF5ABC2}" name="Category"/>
+    <tableColumn id="2" xr3:uid="{056CD76E-5085-6A47-A1D8-AE5C252CD09A}" name="SubCategory"/>
+    <tableColumn id="3" xr3:uid="{42EEC4AD-FE45-1F4C-91F3-9C7BFA19E3B3}" name="DishName"/>
+    <tableColumn id="4" xr3:uid="{FE125FB1-5253-3245-A1AF-F90E5DC5E334}" name="DishDescrip"/>
+    <tableColumn id="5" xr3:uid="{C6E36272-62BC-BE42-B214-DC6B8656333A}" name="DishCost"/>
+    <tableColumn id="6" xr3:uid="{21AB38ED-6903-9A49-999F-66BB1C9B2746}" name="URL"/>
+    <tableColumn id="7" xr3:uid="{0260F731-13BC-D14B-A2FC-5017AD31C7C1}" name="ISVEG"/>
+    <tableColumn id="8" xr3:uid="{72FB7114-69F9-134F-B901-B9309D541D82}" name="SPICELEVEL"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1080,53 +1517,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F04DA246-6F70-D647-BA8E-6BCAF94F283B}">
-  <dimension ref="A1:F162"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59AE99CC-31F3-5643-AD64-D3B6DBF7D34E}">
+  <dimension ref="A1:H163"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" zoomScale="216" zoomScaleNormal="216" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="11" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
@@ -1135,3210 +1580,4191 @@
       <c r="F2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
         <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
         <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>16</v>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>17</v>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>18</v>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>19</v>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>20</v>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F12" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>21</v>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F13" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>22</v>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F14" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>23</v>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>24</v>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>25</v>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F17" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>26</v>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F18" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>27</v>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
       </c>
       <c r="E19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F19" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>28</v>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F20" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>30</v>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>31</v>
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
+        <v>30</v>
       </c>
       <c r="E22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>32</v>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
       </c>
       <c r="E23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F23" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>33</v>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" t="s">
+        <v>32</v>
       </c>
       <c r="E24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F24" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>34</v>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F25" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>35</v>
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" t="s">
+        <v>34</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>36</v>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" t="s">
+        <v>35</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>37</v>
+      <c r="C28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" t="s">
+        <v>36</v>
       </c>
       <c r="E28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>38</v>
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" t="s">
+        <v>37</v>
       </c>
       <c r="E29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F29" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>39</v>
+      <c r="C30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" t="s">
+        <v>38</v>
       </c>
       <c r="E30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F30" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>40</v>
+      <c r="C31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" t="s">
+        <v>39</v>
       </c>
       <c r="E31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F31" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>41</v>
+      <c r="C32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" t="s">
+        <v>40</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F32" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>42</v>
+      <c r="C33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" t="s">
+        <v>41</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" t="s">
+        <v>226</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D35" t="s">
         <v>43</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E35" t="s">
         <v>46</v>
       </c>
-      <c r="F34" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="4" t="s">
+      <c r="F35" t="s">
+        <v>227</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C36" t="s">
         <v>52</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D36" t="s">
         <v>52</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E36" t="s">
         <v>47</v>
       </c>
-      <c r="F35" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" s="4" t="s">
+      <c r="F36" t="s">
+        <v>228</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C37" t="s">
         <v>53</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D37" t="s">
         <v>53</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E37" t="s">
         <v>48</v>
       </c>
-      <c r="F36" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37" s="4" t="s">
+      <c r="F37" t="s">
+        <v>229</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C38" t="s">
         <v>54</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D38" t="s">
         <v>54</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E38" t="s">
         <v>49</v>
       </c>
-      <c r="F37" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38" s="4" t="s">
+      <c r="F38" t="s">
+        <v>230</v>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C39" t="s">
         <v>55</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D39" t="s">
         <v>55</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E39" t="s">
         <v>44</v>
       </c>
-      <c r="F38" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" s="4" t="s">
+      <c r="F39" t="s">
+        <v>231</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C40" t="s">
         <v>56</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D40" t="s">
         <v>56</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E40" t="s">
         <v>45</v>
       </c>
-      <c r="F39" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" s="4" t="s">
+      <c r="F40" t="s">
+        <v>232</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C41" t="s">
         <v>57</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D41" t="s">
         <v>57</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E41" t="s">
         <v>46</v>
       </c>
-      <c r="F40" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>50</v>
-      </c>
-      <c r="B41" s="4" t="s">
+      <c r="F41" t="s">
+        <v>233</v>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" t="s">
         <v>58</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C42" t="s">
         <v>23</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D42" t="s">
         <v>23</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E42" t="s">
         <v>47</v>
       </c>
-      <c r="F41" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>50</v>
-      </c>
-      <c r="B42" s="4" t="s">
+      <c r="F42" t="s">
+        <v>234</v>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C43" t="s">
         <v>59</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D43" t="s">
         <v>59</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E43" t="s">
         <v>48</v>
       </c>
-      <c r="F42" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>50</v>
-      </c>
-      <c r="B43" s="4" t="s">
+      <c r="F43" t="s">
+        <v>235</v>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C44" t="s">
         <v>60</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D44" t="s">
         <v>60</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E44" t="s">
         <v>49</v>
       </c>
-      <c r="F43" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>50</v>
-      </c>
-      <c r="B44" s="4" t="s">
+      <c r="F44" t="s">
+        <v>236</v>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C45" t="s">
         <v>61</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D45" t="s">
         <v>61</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E45" t="s">
         <v>44</v>
       </c>
-      <c r="F44" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45" s="4" t="s">
+      <c r="F45" t="s">
+        <v>237</v>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" t="s">
         <v>58</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C46" t="s">
         <v>62</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D46" t="s">
         <v>62</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E46" t="s">
         <v>45</v>
       </c>
-      <c r="F45" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46" s="4" t="s">
+      <c r="F46" t="s">
+        <v>238</v>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" t="s">
         <v>58</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C47" t="s">
         <v>24</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D47" t="s">
         <v>24</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E47" t="s">
         <v>46</v>
       </c>
-      <c r="F46" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47" s="4" t="s">
+      <c r="F47" t="s">
+        <v>239</v>
+      </c>
+      <c r="G47" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C48" t="s">
         <v>63</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D48" t="s">
         <v>63</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E48" t="s">
         <v>47</v>
       </c>
-      <c r="F47" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" s="4" t="s">
+      <c r="F48" t="s">
+        <v>240</v>
+      </c>
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
         <v>58</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C49" t="s">
         <v>64</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D49" t="s">
         <v>64</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E49" t="s">
         <v>48</v>
       </c>
-      <c r="F48" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49" s="4" t="s">
+      <c r="F49" t="s">
+        <v>241</v>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C50" t="s">
         <v>66</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D50" t="s">
         <v>66</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E50" t="s">
         <v>49</v>
       </c>
-      <c r="F49" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" s="4" t="s">
+      <c r="F50" t="s">
+        <v>242</v>
+      </c>
+      <c r="G50" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
         <v>65</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C51" t="s">
         <v>67</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D51" t="s">
         <v>67</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E51" t="s">
         <v>44</v>
       </c>
-      <c r="F50" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51" s="4" t="s">
+      <c r="F51" t="s">
+        <v>243</v>
+      </c>
+      <c r="G51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
         <v>65</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C52" t="s">
         <v>68</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D52" t="s">
         <v>68</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E52" t="s">
         <v>45</v>
       </c>
-      <c r="F51" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>50</v>
-      </c>
-      <c r="B52" s="4" t="s">
+      <c r="F52" t="s">
+        <v>244</v>
+      </c>
+      <c r="G52" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" t="s">
         <v>65</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C53" t="s">
         <v>69</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D53" t="s">
         <v>69</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E53" t="s">
         <v>46</v>
       </c>
-      <c r="F52" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>50</v>
-      </c>
-      <c r="B53" s="4" t="s">
+      <c r="F53" t="s">
+        <v>245</v>
+      </c>
+      <c r="G53" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54" t="s">
         <v>65</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C54" t="s">
         <v>70</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D54" t="s">
         <v>70</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E54" t="s">
         <v>47</v>
       </c>
-      <c r="F53" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>50</v>
-      </c>
-      <c r="B54" s="4" t="s">
+      <c r="F54" t="s">
+        <v>246</v>
+      </c>
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" t="s">
         <v>65</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C55" t="s">
         <v>71</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D55" t="s">
         <v>71</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E55" t="s">
         <v>48</v>
       </c>
-      <c r="F54" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>50</v>
-      </c>
-      <c r="B55" s="4" t="s">
+      <c r="F55" t="s">
+        <v>247</v>
+      </c>
+      <c r="G55" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>50</v>
+      </c>
+      <c r="B56" t="s">
         <v>65</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C56" t="s">
         <v>72</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D56" t="s">
         <v>72</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E56" t="s">
         <v>49</v>
       </c>
-      <c r="F55" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>50</v>
-      </c>
-      <c r="B56" s="4" t="s">
+      <c r="F56" t="s">
+        <v>248</v>
+      </c>
+      <c r="G56" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>50</v>
+      </c>
+      <c r="B57" t="s">
         <v>65</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C57" t="s">
         <v>73</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D57" t="s">
         <v>73</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E57" t="s">
         <v>44</v>
       </c>
-      <c r="F56" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>50</v>
-      </c>
-      <c r="B57" s="4" t="s">
+      <c r="F57" t="s">
+        <v>249</v>
+      </c>
+      <c r="G57" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>50</v>
+      </c>
+      <c r="B58" t="s">
         <v>65</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C58" t="s">
         <v>74</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D58" t="s">
         <v>74</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E58" t="s">
         <v>45</v>
       </c>
-      <c r="F57" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>50</v>
-      </c>
-      <c r="B58" s="4" t="s">
+      <c r="F58" t="s">
+        <v>250</v>
+      </c>
+      <c r="G58" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>50</v>
+      </c>
+      <c r="B59" t="s">
         <v>65</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C59" t="s">
         <v>75</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D59" t="s">
         <v>75</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E59" t="s">
         <v>46</v>
       </c>
-      <c r="F58" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>50</v>
-      </c>
-      <c r="B59" s="4" t="s">
+      <c r="F59" t="s">
+        <v>251</v>
+      </c>
+      <c r="G59" t="b">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>50</v>
+      </c>
+      <c r="B60" t="s">
         <v>65</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C60" t="s">
         <v>76</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D60" t="s">
         <v>76</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E60" t="s">
         <v>47</v>
       </c>
-      <c r="F59" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>50</v>
-      </c>
-      <c r="B60" s="4" t="s">
+      <c r="F60" t="s">
+        <v>252</v>
+      </c>
+      <c r="G60" t="b">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>50</v>
+      </c>
+      <c r="B61" t="s">
         <v>65</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C61" t="s">
         <v>77</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D61" t="s">
         <v>77</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E61" t="s">
         <v>48</v>
       </c>
-      <c r="F60" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>50</v>
-      </c>
-      <c r="B61" s="4" t="s">
+      <c r="F61" t="s">
+        <v>253</v>
+      </c>
+      <c r="G61" t="b">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>50</v>
+      </c>
+      <c r="B62" t="s">
         <v>65</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C62" t="s">
         <v>78</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D62" t="s">
         <v>78</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E62" t="s">
         <v>49</v>
       </c>
-      <c r="F61" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>50</v>
-      </c>
-      <c r="B62" s="4" t="s">
+      <c r="F62" t="s">
+        <v>254</v>
+      </c>
+      <c r="G62" t="b">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>50</v>
+      </c>
+      <c r="B63" t="s">
         <v>65</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C63" t="s">
         <v>79</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D63" t="s">
         <v>79</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E63" t="s">
         <v>44</v>
       </c>
-      <c r="F62" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>50</v>
-      </c>
-      <c r="B63" s="4" t="s">
+      <c r="F63" t="s">
+        <v>255</v>
+      </c>
+      <c r="G63" t="b">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>50</v>
+      </c>
+      <c r="B64" t="s">
         <v>65</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C64" t="s">
         <v>80</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D64" t="s">
         <v>80</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E64" t="s">
         <v>45</v>
       </c>
-      <c r="F63" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>50</v>
-      </c>
-      <c r="B64" s="4" t="s">
+      <c r="F64" t="s">
+        <v>256</v>
+      </c>
+      <c r="G64" t="b">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>50</v>
+      </c>
+      <c r="B65" t="s">
         <v>65</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C65" t="s">
         <v>81</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D65" t="s">
         <v>81</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E65" t="s">
         <v>46</v>
       </c>
-      <c r="F64" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>50</v>
-      </c>
-      <c r="B65" s="4" t="s">
+      <c r="F65" t="s">
+        <v>257</v>
+      </c>
+      <c r="G65" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>50</v>
+      </c>
+      <c r="B66" t="s">
         <v>65</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C66" t="s">
         <v>82</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="D66" t="s">
         <v>82</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E66" t="s">
         <v>47</v>
       </c>
-      <c r="F65" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>50</v>
-      </c>
-      <c r="B66" s="4" t="s">
+      <c r="F66" t="s">
+        <v>258</v>
+      </c>
+      <c r="G66" t="b">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>50</v>
+      </c>
+      <c r="B67" t="s">
         <v>65</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C67" t="s">
         <v>83</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="D67" t="s">
         <v>83</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E67" t="s">
         <v>48</v>
       </c>
-      <c r="F66" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>50</v>
-      </c>
-      <c r="B67" s="4" t="s">
+      <c r="F67" t="s">
+        <v>259</v>
+      </c>
+      <c r="G67" t="b">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>50</v>
+      </c>
+      <c r="B68" t="s">
         <v>84</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C68" t="s">
         <v>85</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D68" t="s">
         <v>85</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E68" t="s">
         <v>49</v>
       </c>
-      <c r="F67" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>50</v>
-      </c>
-      <c r="B68" s="4" t="s">
+      <c r="F68" t="s">
+        <v>259</v>
+      </c>
+      <c r="G68" t="b">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>50</v>
+      </c>
+      <c r="B69" t="s">
         <v>84</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C69" t="s">
         <v>86</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D69" t="s">
         <v>86</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E69" t="s">
         <v>44</v>
       </c>
-      <c r="F68" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>50</v>
-      </c>
-      <c r="B69" s="4" t="s">
+      <c r="F69" t="s">
+        <v>260</v>
+      </c>
+      <c r="G69" t="b">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>50</v>
+      </c>
+      <c r="B70" t="s">
         <v>84</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C70" t="s">
         <v>87</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D70" t="s">
         <v>87</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E70" t="s">
         <v>45</v>
       </c>
-      <c r="F69" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>50</v>
-      </c>
-      <c r="B70" s="4" t="s">
+      <c r="F70" t="s">
+        <v>261</v>
+      </c>
+      <c r="G70" t="b">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>50</v>
+      </c>
+      <c r="B71" t="s">
         <v>84</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C71" t="s">
         <v>88</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D71" t="s">
         <v>88</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E71" t="s">
         <v>46</v>
       </c>
-      <c r="F70" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>50</v>
-      </c>
-      <c r="B71" s="4" t="s">
+      <c r="F71" t="s">
+        <v>262</v>
+      </c>
+      <c r="G71" t="b">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>50</v>
+      </c>
+      <c r="B72" t="s">
         <v>84</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C72" t="s">
         <v>89</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D72" t="s">
         <v>89</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E72" t="s">
         <v>47</v>
       </c>
-      <c r="F71" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>50</v>
-      </c>
-      <c r="B72" s="4" t="s">
+      <c r="F72" t="s">
+        <v>263</v>
+      </c>
+      <c r="G72" t="b">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>50</v>
+      </c>
+      <c r="B73" t="s">
         <v>84</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C73" t="s">
         <v>90</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D73" t="s">
         <v>90</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E73" t="s">
         <v>48</v>
       </c>
-      <c r="F72" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>50</v>
-      </c>
-      <c r="B73" s="4" t="s">
+      <c r="F73" t="s">
+        <v>264</v>
+      </c>
+      <c r="G73" t="b">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>50</v>
+      </c>
+      <c r="B74" t="s">
         <v>84</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C74" t="s">
         <v>91</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="D74" t="s">
         <v>91</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E74" t="s">
         <v>49</v>
       </c>
-      <c r="F73" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>50</v>
-      </c>
-      <c r="B74" s="4" t="s">
+      <c r="F74" t="s">
+        <v>265</v>
+      </c>
+      <c r="G74" t="b">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>50</v>
+      </c>
+      <c r="B75" t="s">
         <v>84</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C75" t="s">
         <v>92</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D75" t="s">
         <v>92</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E75" t="s">
         <v>44</v>
       </c>
-      <c r="F74" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>50</v>
-      </c>
-      <c r="B75" s="4" t="s">
+      <c r="F75" t="s">
+        <v>266</v>
+      </c>
+      <c r="G75" t="b">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>50</v>
+      </c>
+      <c r="B76" t="s">
         <v>84</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C76" t="s">
         <v>93</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D76" t="s">
         <v>93</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E76" t="s">
         <v>45</v>
       </c>
-      <c r="F75" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>50</v>
-      </c>
-      <c r="B76" s="4" t="s">
+      <c r="F76" t="s">
+        <v>267</v>
+      </c>
+      <c r="G76" t="b">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>50</v>
+      </c>
+      <c r="B77" t="s">
         <v>94</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C77" t="s">
         <v>95</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D77" t="s">
         <v>95</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E77" t="s">
         <v>46</v>
       </c>
-      <c r="F76" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>50</v>
-      </c>
-      <c r="B77" s="4" t="s">
+      <c r="F77" t="s">
+        <v>268</v>
+      </c>
+      <c r="G77" t="b">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>50</v>
+      </c>
+      <c r="B78" t="s">
         <v>94</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C78" t="s">
         <v>96</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="D78" t="s">
         <v>96</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E78" t="s">
         <v>47</v>
       </c>
-      <c r="F77" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>50</v>
-      </c>
-      <c r="B78" s="4" t="s">
+      <c r="F78" t="s">
+        <v>269</v>
+      </c>
+      <c r="G78" t="b">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>50</v>
+      </c>
+      <c r="B79" t="s">
         <v>94</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C79" t="s">
         <v>97</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D79" t="s">
         <v>97</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E79" t="s">
         <v>48</v>
       </c>
-      <c r="F78" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>50</v>
-      </c>
-      <c r="B79" s="4" t="s">
+      <c r="F79" t="s">
+        <v>270</v>
+      </c>
+      <c r="G79" t="b">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>50</v>
+      </c>
+      <c r="B80" t="s">
         <v>94</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C80" t="s">
         <v>98</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="D80" t="s">
         <v>98</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E80" t="s">
         <v>49</v>
       </c>
-      <c r="F79" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>50</v>
-      </c>
-      <c r="B80" s="4" t="s">
+      <c r="F80" t="s">
+        <v>271</v>
+      </c>
+      <c r="G80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>50</v>
+      </c>
+      <c r="B81" t="s">
         <v>94</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C81" t="s">
         <v>99</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="D81" t="s">
         <v>99</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E81" t="s">
         <v>44</v>
       </c>
-      <c r="F80" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>50</v>
-      </c>
-      <c r="B81" s="4" t="s">
+      <c r="F81" t="s">
+        <v>272</v>
+      </c>
+      <c r="G81" t="b">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>50</v>
+      </c>
+      <c r="B82" t="s">
         <v>94</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C82" t="s">
         <v>100</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="D82" t="s">
         <v>100</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E82" t="s">
         <v>45</v>
       </c>
-      <c r="F81" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>50</v>
-      </c>
-      <c r="B82" s="4" t="s">
+      <c r="F82" t="s">
+        <v>273</v>
+      </c>
+      <c r="G82" t="b">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>50</v>
+      </c>
+      <c r="B83" t="s">
         <v>94</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C83" t="s">
         <v>101</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D83" t="s">
         <v>101</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E83" t="s">
         <v>46</v>
       </c>
-      <c r="F82" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>50</v>
-      </c>
-      <c r="B83" s="4" t="s">
+      <c r="F83" t="s">
+        <v>274</v>
+      </c>
+      <c r="G83" t="b">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>50</v>
+      </c>
+      <c r="B84" t="s">
         <v>94</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C84" t="s">
         <v>102</v>
       </c>
-      <c r="D83" s="5" t="s">
+      <c r="D84" t="s">
         <v>102</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E84" t="s">
         <v>47</v>
       </c>
-      <c r="F83" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>50</v>
-      </c>
-      <c r="B84" s="4" t="s">
+      <c r="F84" t="s">
+        <v>275</v>
+      </c>
+      <c r="G84" t="b">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>50</v>
+      </c>
+      <c r="B85" t="s">
         <v>94</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C85" t="s">
         <v>103</v>
       </c>
-      <c r="D84" s="5" t="s">
+      <c r="D85" t="s">
         <v>103</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E85" t="s">
         <v>48</v>
       </c>
-      <c r="F84" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>50</v>
-      </c>
-      <c r="B85" s="4" t="s">
+      <c r="F85" t="s">
+        <v>276</v>
+      </c>
+      <c r="G85" t="b">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>50</v>
+      </c>
+      <c r="B86" t="s">
         <v>104</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C86" t="s">
         <v>104</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="D86" t="s">
         <v>104</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E86" t="s">
         <v>49</v>
       </c>
-      <c r="F85" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>50</v>
-      </c>
-      <c r="B86" s="4" t="s">
+      <c r="F86" t="s">
+        <v>277</v>
+      </c>
+      <c r="G86" t="b">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>50</v>
+      </c>
+      <c r="B87" t="s">
         <v>104</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C87" t="s">
         <v>105</v>
       </c>
-      <c r="D86" s="5" t="s">
+      <c r="D87" t="s">
         <v>105</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E87" t="s">
         <v>44</v>
       </c>
-      <c r="F86" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>50</v>
-      </c>
-      <c r="B87" s="4" t="s">
+      <c r="F87" t="s">
+        <v>278</v>
+      </c>
+      <c r="G87" t="b">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>50</v>
+      </c>
+      <c r="B88" t="s">
         <v>104</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C88" t="s">
         <v>106</v>
       </c>
-      <c r="D87" s="5" t="s">
+      <c r="D88" t="s">
         <v>106</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E88" t="s">
         <v>45</v>
       </c>
-      <c r="F87" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>50</v>
-      </c>
-      <c r="B88" s="4" t="s">
+      <c r="F88" t="s">
+        <v>279</v>
+      </c>
+      <c r="G88" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>50</v>
+      </c>
+      <c r="B89" t="s">
         <v>104</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C89" t="s">
         <v>107</v>
       </c>
-      <c r="D88" s="5" t="s">
+      <c r="D89" t="s">
         <v>107</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E89" t="s">
         <v>46</v>
       </c>
-      <c r="F88" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>50</v>
-      </c>
-      <c r="B89" s="4" t="s">
+      <c r="F89" t="s">
+        <v>280</v>
+      </c>
+      <c r="G89" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>50</v>
+      </c>
+      <c r="B90" t="s">
         <v>104</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="C90" t="s">
         <v>108</v>
       </c>
-      <c r="D89" s="5" t="s">
+      <c r="D90" t="s">
         <v>108</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E90" t="s">
         <v>47</v>
       </c>
-      <c r="F89" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>50</v>
-      </c>
-      <c r="B90" s="4" t="s">
+      <c r="F90" t="s">
+        <v>281</v>
+      </c>
+      <c r="G90" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>50</v>
+      </c>
+      <c r="B91" t="s">
         <v>104</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C91" t="s">
         <v>109</v>
       </c>
-      <c r="D90" s="5" t="s">
+      <c r="D91" t="s">
         <v>109</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E91" t="s">
         <v>48</v>
       </c>
-      <c r="F90" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>50</v>
-      </c>
-      <c r="B91" s="4" t="s">
+      <c r="F91" t="s">
+        <v>282</v>
+      </c>
+      <c r="G91" t="b">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>50</v>
+      </c>
+      <c r="B92" t="s">
         <v>104</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="C92" t="s">
         <v>110</v>
       </c>
-      <c r="D91" s="5" t="s">
+      <c r="D92" t="s">
         <v>110</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E92" t="s">
         <v>49</v>
       </c>
-      <c r="F91" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>50</v>
-      </c>
-      <c r="B92" s="4" t="s">
+      <c r="F92" t="s">
+        <v>283</v>
+      </c>
+      <c r="G92" t="b">
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>50</v>
+      </c>
+      <c r="B93" t="s">
         <v>104</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="C93" t="s">
         <v>111</v>
       </c>
-      <c r="D92" s="5" t="s">
+      <c r="D93" t="s">
         <v>111</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E93" t="s">
         <v>44</v>
       </c>
-      <c r="F92" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>50</v>
-      </c>
-      <c r="B93" s="4" t="s">
+      <c r="F93" t="s">
+        <v>284</v>
+      </c>
+      <c r="G93" t="b">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>50</v>
+      </c>
+      <c r="B94" t="s">
         <v>104</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="C94" t="s">
         <v>112</v>
       </c>
-      <c r="D93" s="5" t="s">
+      <c r="D94" t="s">
         <v>112</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E94" t="s">
         <v>45</v>
       </c>
-      <c r="F93" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>50</v>
-      </c>
-      <c r="B94" s="4" t="s">
+      <c r="F94" t="s">
+        <v>285</v>
+      </c>
+      <c r="G94" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>50</v>
+      </c>
+      <c r="B95" t="s">
         <v>104</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="C95" t="s">
         <v>113</v>
       </c>
-      <c r="D94" s="5" t="s">
+      <c r="D95" t="s">
         <v>113</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E95" t="s">
         <v>46</v>
       </c>
-      <c r="F94" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>50</v>
-      </c>
-      <c r="B95" s="4" t="s">
+      <c r="F95" t="s">
+        <v>286</v>
+      </c>
+      <c r="G95" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>50</v>
+      </c>
+      <c r="B96" t="s">
         <v>114</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="C96" t="s">
         <v>115</v>
       </c>
-      <c r="D95" s="5" t="s">
+      <c r="D96" t="s">
         <v>115</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E96" t="s">
         <v>47</v>
       </c>
-      <c r="F95" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>50</v>
-      </c>
-      <c r="B96" s="4" t="s">
+      <c r="F96" t="s">
+        <v>287</v>
+      </c>
+      <c r="G96" t="b">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>50</v>
+      </c>
+      <c r="B97" t="s">
         <v>114</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="C97" t="s">
         <v>116</v>
       </c>
-      <c r="D96" s="5" t="s">
+      <c r="D97" t="s">
         <v>116</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E97" t="s">
         <v>48</v>
       </c>
-      <c r="F96" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>50</v>
-      </c>
-      <c r="B97" s="4" t="s">
+      <c r="F97" t="s">
+        <v>288</v>
+      </c>
+      <c r="G97" t="b">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>50</v>
+      </c>
+      <c r="B98" t="s">
         <v>114</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="C98" t="s">
         <v>117</v>
       </c>
-      <c r="D97" s="5" t="s">
+      <c r="D98" t="s">
         <v>117</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E98" t="s">
         <v>49</v>
       </c>
-      <c r="F97" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>50</v>
-      </c>
-      <c r="B98" s="4" t="s">
+      <c r="F98" t="s">
+        <v>289</v>
+      </c>
+      <c r="G98" t="b">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>50</v>
+      </c>
+      <c r="B99" t="s">
         <v>114</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="C99" t="s">
         <v>118</v>
       </c>
-      <c r="D98" s="5" t="s">
+      <c r="D99" t="s">
         <v>118</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E99" t="s">
         <v>44</v>
       </c>
-      <c r="F98" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>50</v>
-      </c>
-      <c r="B99" s="4" t="s">
+      <c r="F99" t="s">
+        <v>290</v>
+      </c>
+      <c r="G99" t="b">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>50</v>
+      </c>
+      <c r="B100" t="s">
         <v>114</v>
       </c>
-      <c r="C99" s="5" t="s">
+      <c r="C100" t="s">
         <v>119</v>
       </c>
-      <c r="D99" s="5" t="s">
+      <c r="D100" t="s">
         <v>119</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E100" t="s">
         <v>45</v>
       </c>
-      <c r="F99" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>50</v>
-      </c>
-      <c r="B100" s="4" t="s">
+      <c r="F100" t="s">
+        <v>291</v>
+      </c>
+      <c r="G100" t="b">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>50</v>
+      </c>
+      <c r="B101" t="s">
         <v>114</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="C101" t="s">
         <v>120</v>
       </c>
-      <c r="D100" s="5" t="s">
+      <c r="D101" t="s">
         <v>120</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E101" t="s">
         <v>46</v>
       </c>
-      <c r="F100" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>50</v>
-      </c>
-      <c r="B101" s="4" t="s">
+      <c r="F101" t="s">
+        <v>292</v>
+      </c>
+      <c r="G101" t="b">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>50</v>
+      </c>
+      <c r="B102" t="s">
         <v>114</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="C102" t="s">
         <v>121</v>
       </c>
-      <c r="D101" s="5" t="s">
+      <c r="D102" t="s">
         <v>121</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E102" t="s">
         <v>47</v>
       </c>
-      <c r="F101" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>50</v>
-      </c>
-      <c r="B102" s="4" t="s">
+      <c r="F102" t="s">
+        <v>293</v>
+      </c>
+      <c r="G102" t="b">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>50</v>
+      </c>
+      <c r="B103" t="s">
         <v>114</v>
       </c>
-      <c r="C102" s="5" t="s">
+      <c r="C103" t="s">
         <v>122</v>
       </c>
-      <c r="D102" s="5" t="s">
+      <c r="D103" t="s">
         <v>122</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E103" t="s">
         <v>48</v>
       </c>
-      <c r="F102" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>50</v>
-      </c>
-      <c r="B103" s="4" t="s">
+      <c r="F103" t="s">
+        <v>294</v>
+      </c>
+      <c r="G103" t="b">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>50</v>
+      </c>
+      <c r="B104" t="s">
         <v>114</v>
       </c>
-      <c r="C103" s="5" t="s">
+      <c r="C104" t="s">
         <v>123</v>
       </c>
-      <c r="D103" s="5" t="s">
+      <c r="D104" t="s">
         <v>123</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E104" t="s">
         <v>49</v>
       </c>
-      <c r="F103" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>50</v>
-      </c>
-      <c r="B104" s="4" t="s">
+      <c r="F104" t="s">
+        <v>295</v>
+      </c>
+      <c r="G104" t="b">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>50</v>
+      </c>
+      <c r="B105" t="s">
         <v>114</v>
       </c>
-      <c r="C104" s="5" t="s">
+      <c r="C105" t="s">
         <v>124</v>
       </c>
-      <c r="D104" s="5" t="s">
+      <c r="D105" t="s">
         <v>124</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E105" t="s">
         <v>44</v>
       </c>
-      <c r="F104" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>50</v>
-      </c>
-      <c r="B105" s="4" t="s">
+      <c r="F105" t="s">
+        <v>296</v>
+      </c>
+      <c r="G105" t="b">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>50</v>
+      </c>
+      <c r="B106" t="s">
         <v>125</v>
       </c>
-      <c r="C105" s="5" t="s">
+      <c r="C106" t="s">
         <v>126</v>
       </c>
-      <c r="D105" s="5" t="s">
+      <c r="D106" t="s">
         <v>126</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E106" t="s">
         <v>45</v>
       </c>
-      <c r="F105" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>50</v>
-      </c>
-      <c r="B106" s="4" t="s">
+      <c r="F106" t="s">
+        <v>297</v>
+      </c>
+      <c r="G106" t="b">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>50</v>
+      </c>
+      <c r="B107" t="s">
         <v>125</v>
       </c>
-      <c r="C106" s="5" t="s">
+      <c r="C107" t="s">
         <v>127</v>
       </c>
-      <c r="D106" s="5" t="s">
+      <c r="D107" t="s">
         <v>127</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E107" t="s">
         <v>46</v>
       </c>
-      <c r="F106" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>50</v>
-      </c>
-      <c r="B107" s="4" t="s">
+      <c r="F107" t="s">
+        <v>298</v>
+      </c>
+      <c r="G107" t="b">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>50</v>
+      </c>
+      <c r="B108" t="s">
         <v>125</v>
       </c>
-      <c r="C107" s="5" t="s">
+      <c r="C108" t="s">
         <v>128</v>
       </c>
-      <c r="D107" s="5" t="s">
+      <c r="D108" t="s">
         <v>128</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E108" t="s">
         <v>47</v>
       </c>
-      <c r="F107" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>50</v>
-      </c>
-      <c r="B108" s="4" t="s">
+      <c r="F108" t="s">
+        <v>299</v>
+      </c>
+      <c r="G108" t="b">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>50</v>
+      </c>
+      <c r="B109" t="s">
         <v>125</v>
       </c>
-      <c r="C108" s="5" t="s">
+      <c r="C109" t="s">
         <v>129</v>
       </c>
-      <c r="D108" s="5" t="s">
+      <c r="D109" t="s">
         <v>129</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E109" t="s">
         <v>48</v>
       </c>
-      <c r="F108" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>50</v>
-      </c>
-      <c r="B109" s="4" t="s">
+      <c r="F109" t="s">
+        <v>300</v>
+      </c>
+      <c r="G109" t="b">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>50</v>
+      </c>
+      <c r="B110" t="s">
         <v>125</v>
       </c>
-      <c r="C109" s="5" t="s">
+      <c r="C110" t="s">
         <v>130</v>
       </c>
-      <c r="D109" s="5" t="s">
+      <c r="D110" t="s">
         <v>130</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E110" t="s">
         <v>49</v>
       </c>
-      <c r="F109" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>50</v>
-      </c>
-      <c r="B110" s="4" t="s">
+      <c r="F110" t="s">
+        <v>301</v>
+      </c>
+      <c r="G110" t="b">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>50</v>
+      </c>
+      <c r="B111" t="s">
         <v>125</v>
       </c>
-      <c r="C110" s="5" t="s">
+      <c r="C111" t="s">
         <v>131</v>
       </c>
-      <c r="D110" s="5" t="s">
+      <c r="D111" t="s">
         <v>131</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E111" t="s">
         <v>44</v>
       </c>
-      <c r="F110" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>50</v>
-      </c>
-      <c r="B111" s="4" t="s">
+      <c r="F111" t="s">
+        <v>302</v>
+      </c>
+      <c r="G111" t="b">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>50</v>
+      </c>
+      <c r="B112" t="s">
         <v>125</v>
       </c>
-      <c r="C111" s="5" t="s">
+      <c r="C112" t="s">
         <v>132</v>
       </c>
-      <c r="D111" s="5" t="s">
+      <c r="D112" t="s">
         <v>132</v>
       </c>
-      <c r="E111" t="s">
+      <c r="E112" t="s">
         <v>45</v>
       </c>
-      <c r="F111" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>50</v>
-      </c>
-      <c r="B112" s="4" t="s">
+      <c r="F112" t="s">
+        <v>303</v>
+      </c>
+      <c r="G112" t="b">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>50</v>
+      </c>
+      <c r="B113" t="s">
         <v>125</v>
       </c>
-      <c r="C112" s="5" t="s">
+      <c r="C113" t="s">
         <v>133</v>
       </c>
-      <c r="D112" s="5" t="s">
+      <c r="D113" t="s">
         <v>133</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E113" t="s">
         <v>46</v>
       </c>
-      <c r="F112" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>50</v>
-      </c>
-      <c r="B113" s="4" t="s">
+      <c r="F113" t="s">
+        <v>304</v>
+      </c>
+      <c r="G113" t="b">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>50</v>
+      </c>
+      <c r="B114" t="s">
         <v>134</v>
       </c>
-      <c r="C113" s="5" t="s">
+      <c r="C114" t="s">
         <v>135</v>
       </c>
-      <c r="D113" s="5" t="s">
+      <c r="D114" t="s">
         <v>135</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E114" t="s">
         <v>47</v>
       </c>
-      <c r="F113" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>50</v>
-      </c>
-      <c r="B114" s="4" t="s">
+      <c r="F114" t="s">
+        <v>305</v>
+      </c>
+      <c r="G114" t="b">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>50</v>
+      </c>
+      <c r="B115" t="s">
         <v>134</v>
       </c>
-      <c r="C114" s="5" t="s">
+      <c r="C115" t="s">
         <v>136</v>
       </c>
-      <c r="D114" s="5" t="s">
+      <c r="D115" t="s">
         <v>136</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E115" t="s">
         <v>48</v>
       </c>
-      <c r="F114" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>50</v>
-      </c>
-      <c r="B115" s="4" t="s">
+      <c r="F115" t="s">
+        <v>306</v>
+      </c>
+      <c r="G115" t="b">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>50</v>
+      </c>
+      <c r="B116" t="s">
         <v>137</v>
       </c>
-      <c r="C115" s="5" t="s">
+      <c r="C116" t="s">
         <v>138</v>
       </c>
-      <c r="D115" s="5" t="s">
+      <c r="D116" t="s">
         <v>138</v>
       </c>
-      <c r="E115" t="s">
+      <c r="E116" t="s">
         <v>49</v>
       </c>
-      <c r="F115" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>50</v>
-      </c>
-      <c r="B116" s="4" t="s">
+      <c r="F116" t="s">
+        <v>307</v>
+      </c>
+      <c r="G116" t="b">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>50</v>
+      </c>
+      <c r="B117" t="s">
         <v>137</v>
       </c>
-      <c r="C116" s="5" t="s">
+      <c r="C117" t="s">
         <v>139</v>
       </c>
-      <c r="D116" s="5" t="s">
+      <c r="D117" t="s">
         <v>139</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E117" t="s">
         <v>44</v>
       </c>
-      <c r="F116" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>50</v>
-      </c>
-      <c r="B117" s="4" t="s">
+      <c r="F117" t="s">
+        <v>308</v>
+      </c>
+      <c r="G117" t="b">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>50</v>
+      </c>
+      <c r="B118" t="s">
         <v>137</v>
       </c>
-      <c r="C117" s="5" t="s">
+      <c r="C118" t="s">
         <v>140</v>
       </c>
-      <c r="D117" s="5" t="s">
+      <c r="D118" t="s">
         <v>140</v>
       </c>
-      <c r="E117" t="s">
+      <c r="E118" t="s">
         <v>45</v>
       </c>
-      <c r="F117" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>50</v>
-      </c>
-      <c r="B118" s="4" t="s">
+      <c r="F118" t="s">
+        <v>309</v>
+      </c>
+      <c r="G118" t="b">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>50</v>
+      </c>
+      <c r="B119" t="s">
         <v>137</v>
       </c>
-      <c r="C118" s="5" t="s">
+      <c r="C119" t="s">
         <v>141</v>
       </c>
-      <c r="D118" s="5" t="s">
+      <c r="D119" t="s">
         <v>141</v>
       </c>
-      <c r="E118" t="s">
+      <c r="E119" t="s">
         <v>46</v>
       </c>
-      <c r="F118" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>50</v>
-      </c>
-      <c r="B119" s="4" t="s">
+      <c r="F119" t="s">
+        <v>310</v>
+      </c>
+      <c r="G119" t="b">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>50</v>
+      </c>
+      <c r="B120" t="s">
         <v>137</v>
       </c>
-      <c r="C119" s="5" t="s">
+      <c r="C120" t="s">
         <v>142</v>
       </c>
-      <c r="D119" s="5" t="s">
+      <c r="D120" t="s">
         <v>142</v>
       </c>
-      <c r="E119" t="s">
+      <c r="E120" t="s">
         <v>47</v>
       </c>
-      <c r="F119" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>50</v>
-      </c>
-      <c r="B120" s="4" t="s">
+      <c r="F120" t="s">
+        <v>311</v>
+      </c>
+      <c r="G120" t="b">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>50</v>
+      </c>
+      <c r="B121" t="s">
         <v>137</v>
       </c>
-      <c r="C120" s="5" t="s">
+      <c r="C121" t="s">
         <v>143</v>
       </c>
-      <c r="D120" s="5" t="s">
+      <c r="D121" t="s">
         <v>143</v>
       </c>
-      <c r="E120" t="s">
+      <c r="E121" t="s">
         <v>48</v>
       </c>
-      <c r="F120" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>50</v>
-      </c>
-      <c r="B121" s="4" t="s">
+      <c r="F121" t="s">
+        <v>312</v>
+      </c>
+      <c r="G121" t="b">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>50</v>
+      </c>
+      <c r="B122" t="s">
         <v>137</v>
       </c>
-      <c r="C121" s="5" t="s">
+      <c r="C122" t="s">
         <v>144</v>
       </c>
-      <c r="D121" s="5" t="s">
+      <c r="D122" t="s">
         <v>144</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E122" t="s">
         <v>49</v>
       </c>
-      <c r="F121" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>50</v>
-      </c>
-      <c r="B122" s="4" t="s">
+      <c r="F122" t="s">
+        <v>313</v>
+      </c>
+      <c r="G122" t="b">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>50</v>
+      </c>
+      <c r="B123" t="s">
         <v>137</v>
       </c>
-      <c r="C122" s="5" t="s">
+      <c r="C123" t="s">
         <v>145</v>
       </c>
-      <c r="D122" s="5" t="s">
+      <c r="D123" t="s">
         <v>145</v>
       </c>
-      <c r="E122" t="s">
+      <c r="E123" t="s">
         <v>44</v>
       </c>
-      <c r="F122" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>50</v>
-      </c>
-      <c r="B123" s="4" t="s">
+      <c r="F123" t="s">
+        <v>314</v>
+      </c>
+      <c r="G123" t="b">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>50</v>
+      </c>
+      <c r="B124" t="s">
         <v>137</v>
       </c>
-      <c r="C123" s="5" t="s">
+      <c r="C124" t="s">
         <v>146</v>
       </c>
-      <c r="D123" s="5" t="s">
+      <c r="D124" t="s">
         <v>146</v>
       </c>
-      <c r="E123" t="s">
+      <c r="E124" t="s">
         <v>45</v>
       </c>
-      <c r="F123" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>50</v>
-      </c>
-      <c r="B124" s="4" t="s">
+      <c r="F124" t="s">
+        <v>315</v>
+      </c>
+      <c r="G124" t="b">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>50</v>
+      </c>
+      <c r="B125" t="s">
         <v>137</v>
       </c>
-      <c r="C124" s="5" t="s">
+      <c r="C125" t="s">
         <v>147</v>
       </c>
-      <c r="D124" s="5" t="s">
+      <c r="D125" t="s">
         <v>147</v>
       </c>
-      <c r="E124" t="s">
+      <c r="E125" t="s">
         <v>46</v>
       </c>
-      <c r="F124" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>50</v>
-      </c>
-      <c r="B125" s="4" t="s">
+      <c r="F125" t="s">
+        <v>316</v>
+      </c>
+      <c r="G125" t="b">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>50</v>
+      </c>
+      <c r="B126" t="s">
         <v>137</v>
       </c>
-      <c r="C125" s="5" t="s">
+      <c r="C126" t="s">
         <v>148</v>
       </c>
-      <c r="D125" s="5" t="s">
+      <c r="D126" t="s">
         <v>148</v>
       </c>
-      <c r="E125" t="s">
+      <c r="E126" t="s">
         <v>47</v>
       </c>
-      <c r="F125" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>50</v>
-      </c>
-      <c r="B126" s="4" t="s">
+      <c r="F126" t="s">
+        <v>317</v>
+      </c>
+      <c r="G126" t="b">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>50</v>
+      </c>
+      <c r="B127" t="s">
         <v>137</v>
       </c>
-      <c r="C126" s="5" t="s">
+      <c r="C127" t="s">
         <v>149</v>
       </c>
-      <c r="D126" s="5" t="s">
+      <c r="D127" t="s">
         <v>149</v>
       </c>
-      <c r="E126" t="s">
+      <c r="E127" t="s">
         <v>48</v>
       </c>
-      <c r="F126" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>50</v>
-      </c>
-      <c r="B127" s="4" t="s">
+      <c r="F127" t="s">
+        <v>318</v>
+      </c>
+      <c r="G127" t="b">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>50</v>
+      </c>
+      <c r="B128" t="s">
         <v>137</v>
       </c>
-      <c r="C127" s="5" t="s">
+      <c r="C128" t="s">
         <v>150</v>
       </c>
-      <c r="D127" s="5" t="s">
+      <c r="D128" t="s">
         <v>150</v>
       </c>
-      <c r="E127" t="s">
+      <c r="E128" t="s">
         <v>49</v>
       </c>
-      <c r="F127" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>50</v>
-      </c>
-      <c r="B128" s="4" t="s">
+      <c r="F128" t="s">
+        <v>319</v>
+      </c>
+      <c r="G128" t="b">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>50</v>
+      </c>
+      <c r="B129" t="s">
         <v>151</v>
       </c>
-      <c r="C128" s="5" t="s">
+      <c r="C129" t="s">
         <v>152</v>
       </c>
-      <c r="D128" s="5" t="s">
+      <c r="D129" t="s">
         <v>152</v>
       </c>
-      <c r="E128" t="s">
+      <c r="E129" t="s">
         <v>44</v>
       </c>
-      <c r="F128" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>50</v>
-      </c>
-      <c r="B129" s="4" t="s">
+      <c r="F129" t="s">
+        <v>320</v>
+      </c>
+      <c r="G129" t="b">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>50</v>
+      </c>
+      <c r="B130" t="s">
         <v>151</v>
       </c>
-      <c r="C129" s="5" t="s">
+      <c r="C130" t="s">
         <v>153</v>
       </c>
-      <c r="D129" s="5" t="s">
+      <c r="D130" t="s">
         <v>153</v>
       </c>
-      <c r="E129" t="s">
+      <c r="E130" t="s">
         <v>45</v>
       </c>
-      <c r="F129" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>50</v>
-      </c>
-      <c r="B130" s="4" t="s">
+      <c r="F130" t="s">
+        <v>321</v>
+      </c>
+      <c r="G130" t="b">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>50</v>
+      </c>
+      <c r="B131" t="s">
         <v>151</v>
       </c>
-      <c r="C130" s="5" t="s">
+      <c r="C131" t="s">
         <v>154</v>
       </c>
-      <c r="D130" s="5" t="s">
+      <c r="D131" t="s">
         <v>154</v>
       </c>
-      <c r="E130" t="s">
+      <c r="E131" t="s">
         <v>46</v>
       </c>
-      <c r="F130" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>50</v>
-      </c>
-      <c r="B131" s="4" t="s">
+      <c r="F131" t="s">
+        <v>322</v>
+      </c>
+      <c r="G131" t="b">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>50</v>
+      </c>
+      <c r="B132" t="s">
         <v>151</v>
       </c>
-      <c r="C131" s="5" t="s">
+      <c r="C132" t="s">
         <v>155</v>
       </c>
-      <c r="D131" s="5" t="s">
+      <c r="D132" t="s">
         <v>155</v>
       </c>
-      <c r="E131" t="s">
+      <c r="E132" t="s">
         <v>47</v>
       </c>
-      <c r="F131" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>50</v>
-      </c>
-      <c r="B132" s="4" t="s">
+      <c r="F132" t="s">
+        <v>322</v>
+      </c>
+      <c r="G132" t="b">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>50</v>
+      </c>
+      <c r="B133" t="s">
         <v>151</v>
       </c>
-      <c r="C132" s="5" t="s">
+      <c r="C133" t="s">
         <v>156</v>
       </c>
-      <c r="D132" s="5" t="s">
+      <c r="D133" t="s">
         <v>156</v>
       </c>
-      <c r="E132" t="s">
+      <c r="E133" t="s">
         <v>48</v>
       </c>
-      <c r="F132" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>50</v>
-      </c>
-      <c r="B133" s="4" t="s">
+      <c r="F133" t="s">
+        <v>323</v>
+      </c>
+      <c r="G133" t="b">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>50</v>
+      </c>
+      <c r="B134" t="s">
         <v>151</v>
       </c>
-      <c r="C133" s="5" t="s">
+      <c r="C134" t="s">
         <v>157</v>
       </c>
-      <c r="D133" s="5" t="s">
+      <c r="D134" t="s">
         <v>157</v>
       </c>
-      <c r="E133" t="s">
+      <c r="E134" t="s">
         <v>49</v>
       </c>
-      <c r="F133" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>50</v>
-      </c>
-      <c r="B134" s="4" t="s">
+      <c r="F134" t="s">
+        <v>324</v>
+      </c>
+      <c r="G134" t="b">
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>50</v>
+      </c>
+      <c r="B135" t="s">
         <v>151</v>
       </c>
-      <c r="C134" s="5" t="s">
+      <c r="C135" t="s">
         <v>158</v>
       </c>
-      <c r="D134" s="5" t="s">
+      <c r="D135" t="s">
         <v>158</v>
       </c>
-      <c r="E134" t="s">
+      <c r="E135" t="s">
         <v>44</v>
       </c>
-      <c r="F134" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>50</v>
-      </c>
-      <c r="B135" s="4" t="s">
+      <c r="F135" t="s">
+        <v>325</v>
+      </c>
+      <c r="G135" t="b">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>50</v>
+      </c>
+      <c r="B136" t="s">
         <v>151</v>
       </c>
-      <c r="C135" s="5" t="s">
+      <c r="C136" t="s">
         <v>159</v>
       </c>
-      <c r="D135" s="5" t="s">
+      <c r="D136" t="s">
         <v>159</v>
       </c>
-      <c r="E135" t="s">
+      <c r="E136" t="s">
         <v>45</v>
       </c>
-      <c r="F135" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>50</v>
-      </c>
-      <c r="B136" s="4" t="s">
+      <c r="F136" t="s">
+        <v>326</v>
+      </c>
+      <c r="G136" t="b">
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>50</v>
+      </c>
+      <c r="B137" t="s">
         <v>151</v>
       </c>
-      <c r="C136" s="5" t="s">
+      <c r="C137" t="s">
         <v>160</v>
       </c>
-      <c r="D136" s="5" t="s">
+      <c r="D137" t="s">
         <v>160</v>
       </c>
-      <c r="E136" t="s">
+      <c r="E137" t="s">
         <v>46</v>
       </c>
-      <c r="F136" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>50</v>
-      </c>
-      <c r="B137" s="4" t="s">
+      <c r="F137" t="s">
+        <v>327</v>
+      </c>
+      <c r="G137" t="b">
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>50</v>
+      </c>
+      <c r="B138" t="s">
         <v>151</v>
       </c>
-      <c r="C137" s="5" t="s">
+      <c r="C138" t="s">
         <v>161</v>
       </c>
-      <c r="D137" s="5" t="s">
+      <c r="D138" t="s">
         <v>161</v>
       </c>
-      <c r="E137" t="s">
+      <c r="E138" t="s">
         <v>47</v>
       </c>
-      <c r="F137" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>50</v>
-      </c>
-      <c r="B138" s="4" t="s">
+      <c r="F138" t="s">
+        <v>328</v>
+      </c>
+      <c r="G138" t="b">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>50</v>
+      </c>
+      <c r="B139" t="s">
         <v>151</v>
       </c>
-      <c r="C138" s="5" t="s">
+      <c r="C139" t="s">
         <v>162</v>
       </c>
-      <c r="D138" s="5" t="s">
+      <c r="D139" t="s">
         <v>162</v>
       </c>
-      <c r="E138" t="s">
+      <c r="E139" t="s">
         <v>48</v>
       </c>
-      <c r="F138" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>50</v>
-      </c>
-      <c r="B139" s="4" t="s">
+      <c r="F139" t="s">
+        <v>329</v>
+      </c>
+      <c r="G139" t="b">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>50</v>
+      </c>
+      <c r="B140" t="s">
         <v>151</v>
       </c>
-      <c r="C139" s="5" t="s">
+      <c r="C140" t="s">
         <v>163</v>
       </c>
-      <c r="D139" s="5" t="s">
+      <c r="D140" t="s">
         <v>163</v>
       </c>
-      <c r="E139" t="s">
+      <c r="E140" t="s">
         <v>49</v>
       </c>
-      <c r="F139" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>50</v>
-      </c>
-      <c r="B140" s="4" t="s">
+      <c r="F140" t="s">
+        <v>330</v>
+      </c>
+      <c r="G140" t="b">
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>50</v>
+      </c>
+      <c r="B141" t="s">
         <v>151</v>
       </c>
-      <c r="C140" s="5" t="s">
+      <c r="C141" t="s">
         <v>164</v>
       </c>
-      <c r="D140" s="5" t="s">
+      <c r="D141" t="s">
         <v>164</v>
       </c>
-      <c r="E140" t="s">
+      <c r="E141" t="s">
         <v>44</v>
       </c>
-      <c r="F140" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>165</v>
-      </c>
-      <c r="B141" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="C141" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="D141" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="E141" t="s">
-        <v>45</v>
-      </c>
       <c r="F141" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+        <v>331</v>
+      </c>
+      <c r="G141" t="b">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>165</v>
       </c>
-      <c r="B142" s="7" t="s">
+      <c r="B142" t="s">
         <v>166</v>
       </c>
-      <c r="C142" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="D142" s="8" t="s">
-        <v>168</v>
+      <c r="C142" t="s">
+        <v>167</v>
+      </c>
+      <c r="D142" t="s">
+        <v>167</v>
       </c>
       <c r="E142" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F142" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+      <c r="G142" t="b">
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>165</v>
       </c>
-      <c r="B143" s="7" t="s">
+      <c r="B143" t="s">
         <v>166</v>
       </c>
-      <c r="C143" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D143" s="8" t="s">
-        <v>169</v>
+      <c r="C143" t="s">
+        <v>168</v>
+      </c>
+      <c r="D143" t="s">
+        <v>168</v>
       </c>
       <c r="E143" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F143" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+        <v>333</v>
+      </c>
+      <c r="G143" t="b">
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>165</v>
       </c>
-      <c r="B144" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C144" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="D144" s="8" t="s">
-        <v>171</v>
+      <c r="B144" t="s">
+        <v>166</v>
+      </c>
+      <c r="C144" t="s">
+        <v>169</v>
+      </c>
+      <c r="D144" t="s">
+        <v>169</v>
       </c>
       <c r="E144" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F144" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+        <v>334</v>
+      </c>
+      <c r="G144" t="b">
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>165</v>
       </c>
-      <c r="B145" s="7" t="s">
+      <c r="B145" t="s">
         <v>170</v>
       </c>
-      <c r="C145" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="D145" s="8" t="s">
-        <v>172</v>
+      <c r="C145" t="s">
+        <v>171</v>
+      </c>
+      <c r="D145" t="s">
+        <v>171</v>
       </c>
       <c r="E145" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F145" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+        <v>335</v>
+      </c>
+      <c r="G145" t="b">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>165</v>
       </c>
-      <c r="B146" s="7" t="s">
+      <c r="B146" t="s">
         <v>170</v>
       </c>
-      <c r="C146" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="D146" s="8" t="s">
-        <v>173</v>
+      <c r="C146" t="s">
+        <v>172</v>
+      </c>
+      <c r="D146" t="s">
+        <v>172</v>
       </c>
       <c r="E146" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F146" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+        <v>336</v>
+      </c>
+      <c r="G146" t="b">
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>165</v>
       </c>
-      <c r="B147" s="7" t="s">
+      <c r="B147" t="s">
         <v>170</v>
       </c>
-      <c r="C147" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="D147" s="8" t="s">
-        <v>174</v>
+      <c r="C147" t="s">
+        <v>173</v>
+      </c>
+      <c r="D147" t="s">
+        <v>173</v>
       </c>
       <c r="E147" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F147" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+      <c r="G147" t="b">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>165</v>
       </c>
-      <c r="B148" s="7" t="s">
+      <c r="B148" t="s">
         <v>170</v>
       </c>
-      <c r="C148" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="D148" s="8" t="s">
-        <v>175</v>
+      <c r="C148" t="s">
+        <v>174</v>
+      </c>
+      <c r="D148" t="s">
+        <v>174</v>
       </c>
       <c r="E148" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F148" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+        <v>338</v>
+      </c>
+      <c r="G148" t="b">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>165</v>
       </c>
-      <c r="B149" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C149" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="D149" s="8" t="s">
-        <v>176</v>
+      <c r="B149" t="s">
+        <v>170</v>
+      </c>
+      <c r="C149" t="s">
+        <v>175</v>
+      </c>
+      <c r="D149" t="s">
+        <v>175</v>
       </c>
       <c r="E149" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F149" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+      <c r="G149" t="b">
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>165</v>
       </c>
-      <c r="B150" s="7" t="s">
+      <c r="B150" t="s">
         <v>13</v>
       </c>
-      <c r="C150" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="D150" s="8" t="s">
-        <v>177</v>
+      <c r="C150" t="s">
+        <v>176</v>
+      </c>
+      <c r="D150" t="s">
+        <v>176</v>
       </c>
       <c r="E150" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F150" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+        <v>340</v>
+      </c>
+      <c r="G150" t="b">
+        <v>1</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>165</v>
       </c>
-      <c r="B151" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C151" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="D151" s="8" t="s">
-        <v>179</v>
+      <c r="B151" t="s">
+        <v>13</v>
+      </c>
+      <c r="C151" t="s">
+        <v>177</v>
+      </c>
+      <c r="D151" t="s">
+        <v>177</v>
       </c>
       <c r="E151" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F151" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+      <c r="G151" t="b">
+        <v>1</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>165</v>
       </c>
-      <c r="B152" s="7" t="s">
+      <c r="B152" t="s">
         <v>178</v>
       </c>
-      <c r="C152" s="8" t="s">
+      <c r="C152" t="s">
+        <v>179</v>
+      </c>
+      <c r="D152" t="s">
+        <v>179</v>
+      </c>
+      <c r="E152" t="s">
+        <v>46</v>
+      </c>
+      <c r="F152" t="s">
+        <v>342</v>
+      </c>
+      <c r="G152" t="b">
+        <v>1</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>165</v>
+      </c>
+      <c r="B153" t="s">
+        <v>178</v>
+      </c>
+      <c r="C153" t="s">
         <v>180</v>
       </c>
-      <c r="D152" s="8" t="s">
+      <c r="D153" t="s">
         <v>180</v>
       </c>
-      <c r="E152" t="s">
+      <c r="E153" t="s">
         <v>47</v>
       </c>
-      <c r="F152" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>181</v>
-      </c>
-      <c r="B153" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="C153" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="D153" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="E153" t="s">
-        <v>48</v>
-      </c>
       <c r="F153" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+        <v>343</v>
+      </c>
+      <c r="G153" t="b">
+        <v>1</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>181</v>
       </c>
-      <c r="B154" s="9" t="s">
+      <c r="B154" t="s">
         <v>182</v>
       </c>
-      <c r="C154" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D154" s="10" t="s">
-        <v>184</v>
+      <c r="C154" t="s">
+        <v>183</v>
+      </c>
+      <c r="D154" t="s">
+        <v>183</v>
       </c>
       <c r="E154" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F154" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+      <c r="G154" t="b">
+        <v>1</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>181</v>
       </c>
-      <c r="B155" s="9" t="s">
+      <c r="B155" t="s">
         <v>182</v>
       </c>
-      <c r="C155" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="D155" s="10" t="s">
-        <v>185</v>
+      <c r="C155" t="s">
+        <v>184</v>
+      </c>
+      <c r="D155" t="s">
+        <v>184</v>
       </c>
       <c r="E155" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F155" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+      <c r="G155" t="b">
+        <v>1</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>181</v>
       </c>
-      <c r="B156" s="9" t="s">
+      <c r="B156" t="s">
         <v>182</v>
       </c>
-      <c r="C156" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="D156" s="10" t="s">
-        <v>186</v>
+      <c r="C156" t="s">
+        <v>185</v>
+      </c>
+      <c r="D156" t="s">
+        <v>185</v>
       </c>
       <c r="E156" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F156" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+        <v>346</v>
+      </c>
+      <c r="G156" t="b">
+        <v>1</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>181</v>
       </c>
-      <c r="B157" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="C157" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="D157" s="10" t="s">
-        <v>188</v>
+      <c r="B157" t="s">
+        <v>182</v>
+      </c>
+      <c r="C157" t="s">
+        <v>186</v>
+      </c>
+      <c r="D157" t="s">
+        <v>186</v>
       </c>
       <c r="E157" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F157" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+        <v>347</v>
+      </c>
+      <c r="G157" t="b">
+        <v>1</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>181</v>
       </c>
-      <c r="B158" s="9" t="s">
+      <c r="B158" t="s">
         <v>187</v>
       </c>
-      <c r="C158" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="D158" s="10" t="s">
-        <v>189</v>
+      <c r="C158" t="s">
+        <v>188</v>
+      </c>
+      <c r="D158" t="s">
+        <v>188</v>
       </c>
       <c r="E158" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F158" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+      <c r="G158" t="b">
+        <v>1</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>181</v>
       </c>
-      <c r="B159" s="9" t="s">
+      <c r="B159" t="s">
         <v>187</v>
       </c>
-      <c r="C159" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="D159" s="10" t="s">
-        <v>190</v>
+      <c r="C159" t="s">
+        <v>189</v>
+      </c>
+      <c r="D159" t="s">
+        <v>189</v>
       </c>
       <c r="E159" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F159" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+        <v>349</v>
+      </c>
+      <c r="G159" t="b">
+        <v>1</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>181</v>
       </c>
-      <c r="B160" s="9" t="s">
+      <c r="B160" t="s">
         <v>187</v>
       </c>
-      <c r="C160" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="D160" s="10" t="s">
-        <v>191</v>
+      <c r="C160" t="s">
+        <v>190</v>
+      </c>
+      <c r="D160" t="s">
+        <v>190</v>
       </c>
       <c r="E160" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F160" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+        <v>350</v>
+      </c>
+      <c r="G160" t="b">
+        <v>1</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>181</v>
       </c>
-      <c r="B161" s="9" t="s">
+      <c r="B161" t="s">
         <v>187</v>
       </c>
-      <c r="C161" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="D161" s="10" t="s">
-        <v>192</v>
+      <c r="C161" t="s">
+        <v>191</v>
+      </c>
+      <c r="D161" t="s">
+        <v>191</v>
       </c>
       <c r="E161" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F161" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+        <v>351</v>
+      </c>
+      <c r="G161" t="b">
+        <v>1</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>181</v>
       </c>
-      <c r="B162" s="9" t="s">
+      <c r="B162" t="s">
         <v>187</v>
       </c>
-      <c r="C162" s="10" t="s">
+      <c r="C162" t="s">
+        <v>192</v>
+      </c>
+      <c r="D162" t="s">
+        <v>192</v>
+      </c>
+      <c r="E162" t="s">
+        <v>47</v>
+      </c>
+      <c r="F162" t="s">
+        <v>352</v>
+      </c>
+      <c r="G162" t="b">
+        <v>1</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>181</v>
+      </c>
+      <c r="B163" t="s">
+        <v>187</v>
+      </c>
+      <c r="C163" t="s">
         <v>193</v>
       </c>
-      <c r="D162" s="10" t="s">
+      <c r="D163" t="s">
         <v>193</v>
       </c>
-      <c r="E162" t="s">
+      <c r="E163" t="s">
         <v>48</v>
       </c>
-      <c r="F162" t="s">
-        <v>195</v>
+      <c r="F163" t="s">
+        <v>353</v>
+      </c>
+      <c r="G163" t="b">
+        <v>1</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E162" xr:uid="{F04DA246-6F70-D647-BA8E-6BCAF94F283B}"/>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>